--- a/data/age_coefficients_and_var.xlsx
+++ b/data/age_coefficients_and_var.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Quintus/Google Drive/Dynamic Programming/code/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sidhya Balakrishnan\Desktop\ISA-Research-Paper\HSG 18-25\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F0801C-4379-4327-8D7E-21F62801F3A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1920" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="1155" yWindow="1920" windowWidth="25605" windowHeight="15540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Coefficients" sheetId="2" r:id="rId1"/>
     <sheet name="Variance" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -72,12 +73,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -112,6 +113,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -166,7 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Currency" xfId="3" builtinId="4"/>
@@ -199,6 +210,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -466,20 +480,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView zoomScale="187" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" zoomScale="187" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>6</v>
       </c>
@@ -493,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -510,24 +524,24 @@
         <v>-0.78894830000000005</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>28752.76</v>
-      </c>
-      <c r="C3">
-        <v>-917.54660000000001</v>
-      </c>
-      <c r="D3">
-        <v>51.095140000000001</v>
-      </c>
-      <c r="E3">
-        <v>-0.60892809999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="14">
+        <v>-16639.82</v>
+      </c>
+      <c r="C3" s="14">
+        <v>2353.7379999999998</v>
+      </c>
+      <c r="D3" s="14">
+        <v>-23.585180000000001</v>
+      </c>
+      <c r="E3" s="14">
+        <v>-6.4247700000000005E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -551,25 +565,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:G2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -583,7 +597,7 @@
       <c r="G1" s="10"/>
       <c r="H1" s="5"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>11</v>
       </c>
@@ -597,7 +611,7 @@
       <c r="G2" s="11"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -617,15 +631,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="7">
         <v>0.15716233645501712</v>
       </c>
-      <c r="C4" s="7">
-        <v>0.13711309200802088</v>
+      <c r="C4" s="12">
+        <v>0.13725195809167898</v>
       </c>
       <c r="D4" s="7">
         <v>0.14387494569938158</v>
@@ -640,12 +654,12 @@
         <v>0.14525839046333949</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
-      <c r="C5" s="2">
-        <v>-1.2999999999999999E-3</v>
+      <c r="C5" s="13">
+        <v>-1.3365E-3</v>
       </c>
       <c r="D5" s="2">
         <v>-1.8E-3</v>
@@ -660,15 +674,15 @@
         <v>-1.6999999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="7">
         <v>0.3391902121229326</v>
       </c>
-      <c r="C6" s="7">
-        <v>0.23377339455121918</v>
+      <c r="C6" s="12">
+        <v>0.23379392635395815</v>
       </c>
       <c r="D6" s="7">
         <v>0.22956480566497992</v>
@@ -683,12 +697,12 @@
         <v>0.26258332011001767</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>-1.8599999999999998E-2</v>
       </c>
-      <c r="C7" s="2">
-        <v>-1.8599999999999998E-2</v>
+      <c r="C7" s="13">
+        <v>-8.2927999999999995E-3</v>
       </c>
       <c r="D7" s="2">
         <v>-1.12E-2</v>
@@ -711,6 +725,6 @@
     <mergeCell ref="E1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>